--- a/data/ws_ls_fund.xlsx
+++ b/data/ws_ls_fund.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratyusatripathy/my_work/fund_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6673D420-DC2A-1A41-845D-3D43CD5CBCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAAABB5-7FCC-FF48-9921-E11DAEE08E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="20440" xr2:uid="{13BD8685-10F8-554F-9C86-04E35025B8F3}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{13BD8685-10F8-554F-9C86-04E35025B8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance Data" sheetId="2" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,7 +568,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="C2" s="4">
-        <v>-3.23300092966882E-3</v>
+        <v>3.7218743799037599E-2</v>
       </c>
       <c r="D2" s="3">
         <v>8.7367922205472404E-4</v>
@@ -593,7 +593,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="C3" s="4">
-        <v>2.5680489913222301E-2</v>
+        <v>-3.23300092966882E-3</v>
       </c>
       <c r="D3" s="3">
         <v>2.134677801202578E-3</v>
@@ -617,8 +617,8 @@
       <c r="B4" s="3">
         <v>1.3000000000000002E-3</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.118706057739631</v>
+      <c r="C4" s="4">
+        <v>2.5680489913222301E-2</v>
       </c>
       <c r="D4" s="3">
         <v>1.2725353042101206E-2</v>
@@ -642,8 +642,8 @@
       <c r="B5" s="3">
         <v>1.2199999999999999E-2</v>
       </c>
-      <c r="C5" s="4">
-        <v>7.4563516116051096E-2</v>
+      <c r="C5" s="5">
+        <v>0.118706057739631</v>
       </c>
       <c r="D5" s="3">
         <v>8.9946855509015489E-3</v>
@@ -668,7 +668,7 @@
         <v>2.29E-2</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.87440587842496E-2</v>
+        <v>7.4563516116051096E-2</v>
       </c>
       <c r="D6" s="3">
         <v>2.4488404172329226E-3</v>
@@ -693,7 +693,7 @@
         <v>1.89E-2</v>
       </c>
       <c r="C7" s="4">
-        <v>7.77711045692355E-2</v>
+        <v>-1.87440587842496E-2</v>
       </c>
       <c r="D7" s="3">
         <v>-1.1827763032441485E-3</v>
@@ -717,8 +717,8 @@
       <c r="B8" s="3">
         <v>1.14E-2</v>
       </c>
-      <c r="C8" s="5">
-        <v>1.0860737976058099E-2</v>
+      <c r="C8" s="4">
+        <v>7.77711045692355E-2</v>
       </c>
       <c r="D8" s="3">
         <v>-3.6995854090828839E-3</v>
@@ -746,8 +746,8 @@
       <c r="B9" s="3">
         <v>1.03E-2</v>
       </c>
-      <c r="C9" s="4">
-        <v>4.1132625892879001E-3</v>
+      <c r="C9" s="5">
+        <v>1.0860737976058099E-2</v>
       </c>
       <c r="D9" s="3">
         <v>8.2060816672147041E-3</v>
@@ -772,7 +772,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>6.9716580982802603E-2</v>
+        <v>4.1132625892879001E-3</v>
       </c>
       <c r="D10" s="3">
         <v>8.2497316011977961E-3</v>
@@ -797,7 +797,7 @@
         <v>1.12E-2</v>
       </c>
       <c r="C11" s="4">
-        <v>1.8690003753757099E-2</v>
+        <v>6.9716580982802603E-2</v>
       </c>
       <c r="D11" s="3">
         <v>6.2640425109157238E-3</v>
@@ -821,8 +821,8 @@
       <c r="B12" s="3">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="C12" s="5">
-        <v>1.41536897753169E-2</v>
+      <c r="C12" s="4">
+        <v>1.8690003753757099E-2</v>
       </c>
       <c r="D12" s="3">
         <v>3.2000000000000002E-3</v>
@@ -846,8 +846,8 @@
       <c r="B13" s="3">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="C13" s="4">
-        <v>6.5254191378694995E-2</v>
+      <c r="C13" s="5">
+        <v>1.41536897753169E-2</v>
       </c>
       <c r="D13" s="3">
         <v>7.0809588787932309E-3</v>
@@ -872,7 +872,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="C14" s="4">
-        <v>3.4127099884859E-2</v>
+        <v>6.5254191378694995E-2</v>
       </c>
       <c r="D14" s="3">
         <v>7.579185520361964E-3</v>
@@ -897,7 +897,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="C15" s="4">
-        <v>2.27534975911991E-3</v>
+        <v>3.4127099884859E-2</v>
       </c>
       <c r="D15" s="3">
         <v>2.0882452004040708E-3</v>
@@ -922,7 +922,7 @@
         <v>2.6599999999999999E-2</v>
       </c>
       <c r="C16" s="4">
-        <v>-2.9068353182989701E-2</v>
+        <v>2.27534975911991E-3</v>
       </c>
       <c r="D16" s="3">
         <v>1.458974435581073E-3</v>
@@ -946,8 +946,8 @@
       <c r="B17" s="3">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="C17" s="5">
-        <v>2.37467741430104E-2</v>
+      <c r="C17" s="4">
+        <v>-2.9068353182989701E-2</v>
       </c>
       <c r="D17" s="3">
         <v>4.9970415525135703E-3</v>
@@ -971,8 +971,8 @@
       <c r="B18" s="3">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="C18" s="4">
-        <v>-4.9846025247704999E-3</v>
+      <c r="C18" s="5">
+        <v>2.37467741430104E-2</v>
       </c>
       <c r="D18" s="3">
         <v>2.0235103203973814E-3</v>
@@ -997,7 +997,7 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="C19" s="4">
-        <v>-4.1115294990786699E-2</v>
+        <v>-4.9846025247704999E-3</v>
       </c>
       <c r="D19" s="3">
         <v>2.0539862639668005E-3</v>
@@ -1022,7 +1022,7 @@
         <v>3.8E-3</v>
       </c>
       <c r="C20" s="4">
-        <v>4.09946624611758E-2</v>
+        <v>-4.1115294990786699E-2</v>
       </c>
       <c r="D20" s="3">
         <v>5.2500874603964576E-3</v>
@@ -1047,7 +1047,7 @@
         <v>0.01</v>
       </c>
       <c r="C21" s="4">
-        <v>-7.4625221643819196E-3</v>
+        <v>4.09946624611758E-2</v>
       </c>
       <c r="D21" s="3">
         <v>3.7374794438631564E-3</v>
@@ -1072,7 +1072,7 @@
         <v>6.5000000000000006E-3</v>
       </c>
       <c r="C22" s="4">
-        <v>-4.4898478213623402E-2</v>
+        <v>-7.4625221643819196E-3</v>
       </c>
       <c r="D22" s="3">
         <v>-3.2913852629934404E-3</v>
@@ -1097,7 +1097,7 @@
         <v>-4.0299999999999996E-2</v>
       </c>
       <c r="C23" s="4">
-        <v>-5.1846356155303197E-2</v>
+        <v>-4.4898478213623402E-2</v>
       </c>
       <c r="D23" s="3">
         <v>-7.1214043889604728E-3</v>
@@ -1122,7 +1122,7 @@
         <v>3.9000000000000003E-3</v>
       </c>
       <c r="C24" s="4">
-        <v>9.5469322589311498E-2</v>
+        <v>-5.1846356155303197E-2</v>
       </c>
       <c r="D24" s="3">
         <v>2.4599123116515464E-3</v>
@@ -1147,7 +1147,7 @@
         <v>-0.01</v>
       </c>
       <c r="C25" s="4">
-        <v>4.4962159747698703E-2</v>
+        <v>9.5469322589311498E-2</v>
       </c>
       <c r="D25" s="3">
         <v>8.3658219623130581E-3</v>
@@ -1172,7 +1172,7 @@
         <v>1.8000000000000002E-3</v>
       </c>
       <c r="C26" s="4">
-        <v>-3.2345727316232899E-2</v>
+        <v>4.4962159747698703E-2</v>
       </c>
       <c r="D26" s="3">
         <v>7.5397551837343979E-3</v>
@@ -1197,7 +1197,7 @@
         <v>1.5300000000000001E-2</v>
       </c>
       <c r="C27" s="4">
-        <v>4.0099546704384002E-2</v>
+        <v>-3.2345727316232899E-2</v>
       </c>
       <c r="D27" s="3">
         <v>-9.9325555254092812E-4</v>
@@ -1221,8 +1221,8 @@
       <c r="B28" s="3">
         <v>2.2600000000000002E-2</v>
       </c>
-      <c r="C28" s="5">
-        <v>3.3853156436669002E-2</v>
+      <c r="C28" s="4">
+        <v>4.0099546704384002E-2</v>
       </c>
       <c r="D28" s="3">
         <v>3.4992506802078438E-3</v>
@@ -1246,8 +1246,8 @@
       <c r="B29" s="3">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="C29" s="4">
-        <v>-3.11862994284283E-2</v>
+      <c r="C29" s="5">
+        <v>3.3853156436669002E-2</v>
       </c>
       <c r="D29" s="3">
         <v>8.5134250163718672E-3</v>
@@ -1272,7 +1272,7 @@
         <v>1.72E-2</v>
       </c>
       <c r="C30" s="4">
-        <v>-3.3228967026412301E-2</v>
+        <v>-3.11862994284283E-2</v>
       </c>
       <c r="D30" s="3">
         <v>5.4607753869746478E-3</v>
@@ -1297,7 +1297,7 @@
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="C31" s="4">
-        <v>-2.7902046380224501E-2</v>
+        <v>-3.3228967026412301E-2</v>
       </c>
       <c r="D31" s="3">
         <v>5.1046306292137356E-3</v>
@@ -1322,7 +1322,7 @@
         <v>1.9200000000000002E-2</v>
       </c>
       <c r="C32" s="4">
-        <v>2.6930424020663499E-3</v>
+        <v>-2.7902046380224501E-2</v>
       </c>
       <c r="D32" s="3">
         <v>3.3502386422641361E-3</v>
@@ -1347,7 +1347,7 @@
         <v>1.4100000000000001E-2</v>
       </c>
       <c r="C33" s="4">
-        <v>4.5453155037841399E-2</v>
+        <v>2.6930424020663499E-3</v>
       </c>
       <c r="D33" s="3">
         <v>8.0888712444526778E-3</v>
@@ -1372,7 +1372,7 @@
         <v>1.0499999999999999E-2</v>
       </c>
       <c r="C34" s="4">
-        <v>3.5930799067990397E-2</v>
+        <v>4.5453155037841399E-2</v>
       </c>
       <c r="D34" s="3">
         <v>9.5476527026676639E-3</v>
@@ -1396,8 +1396,8 @@
       <c r="B35" s="3">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="C35" s="5">
-        <v>4.2089480980680202E-2</v>
+      <c r="C35" s="4">
+        <v>3.5930799067990397E-2</v>
       </c>
       <c r="D35" s="3">
         <v>6.9635683934334835E-3</v>
@@ -1422,7 +1422,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="C36" s="5">
-        <v>3.8283627510651203E-2</v>
+        <v>4.2089480980680202E-2</v>
       </c>
       <c r="D36" s="3">
         <v>4.242867255902727E-3</v>
@@ -1446,8 +1446,8 @@
       <c r="B37" s="3">
         <v>5.3E-3</v>
       </c>
-      <c r="C37" s="4">
-        <v>-7.8960794155578107E-3</v>
+      <c r="C37" s="5">
+        <v>3.8283627510651203E-2</v>
       </c>
       <c r="D37" s="3">
         <v>5.1801455308615463E-3</v>
@@ -1472,7 +1472,7 @@
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="C38" s="4">
-        <v>2.1761538800647299E-2</v>
+        <v>-7.8960794155578107E-3</v>
       </c>
       <c r="D38" s="3">
         <v>6.0945941315546648E-3</v>
@@ -1497,7 +1497,7 @@
         <v>1.5099999999999999E-2</v>
       </c>
       <c r="C39" s="4">
-        <v>-2.8422562894102901E-2</v>
+        <v>2.1761538800647299E-2</v>
       </c>
       <c r="D39" s="3">
         <v>5.1403959285523104E-3</v>
@@ -1522,7 +1522,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="C40" s="4">
-        <v>7.0641186408581094E-2</v>
+        <v>-2.8422562894102901E-2</v>
       </c>
       <c r="D40" s="3">
         <v>3.8355805438030632E-3</v>
@@ -1547,7 +1547,7 @@
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="C41" s="4">
-        <v>8.0120371385790895E-2</v>
+        <v>7.0641186408581094E-2</v>
       </c>
       <c r="D41" s="3">
         <v>6.0441724141813147E-3</v>
@@ -1572,7 +1572,7 @@
         <v>1.61E-2</v>
       </c>
       <c r="C42" s="4">
-        <v>1.91953436589773E-2</v>
+        <v>8.0120371385790895E-2</v>
       </c>
       <c r="D42" s="3">
         <v>6.7571648090614111E-3</v>
@@ -1596,8 +1596,8 @@
       <c r="B43" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="C43" s="5">
-        <v>1.45414464907889E-2</v>
+      <c r="C43" s="4">
+        <v>1.91953436589773E-2</v>
       </c>
       <c r="D43" s="3">
         <v>6.240807639157131E-3</v>
@@ -1621,8 +1621,8 @@
       <c r="B44" s="3">
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="C44" s="4">
-        <v>8.2179786986444903E-3</v>
+      <c r="C44" s="5">
+        <v>1.45414464907889E-2</v>
       </c>
       <c r="D44" s="3">
         <v>6.4957574446193878E-3</v>
@@ -1647,7 +1647,7 @@
         <v>1.4499999999999999E-2</v>
       </c>
       <c r="C45" s="4">
-        <v>3.6635068800499E-2</v>
+        <v>8.2179786986444903E-3</v>
       </c>
       <c r="D45" s="3">
         <v>7.2479505454610127E-3</v>
@@ -1672,7 +1672,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
       <c r="C46" s="4">
-        <v>5.0531292957041096E-3</v>
+        <v>3.6635068800499E-2</v>
       </c>
       <c r="D46" s="3">
         <v>6.0000000000000001E-3</v>
@@ -1697,7 +1697,7 @@
         <v>1.46E-2</v>
       </c>
       <c r="C47" s="4">
-        <v>6.9012826599807994E-2</v>
+        <v>5.0531292957041096E-3</v>
       </c>
       <c r="D47" s="3">
         <v>5.7999999999999996E-3</v>
@@ -1722,7 +1722,7 @@
         <v>1.0499999999999999E-2</v>
       </c>
       <c r="C48" s="4">
-        <v>4.3045855934678898E-2</v>
+        <v>6.9012826599807994E-2</v>
       </c>
       <c r="D48" s="3">
         <v>6.8999999999999999E-3</v>
@@ -1747,7 +1747,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="C49" s="4">
-        <v>8.6588638395321792E-3</v>
+        <v>4.3045855934678898E-2</v>
       </c>
       <c r="D49" s="3">
         <v>6.8999999999999999E-3</v>
@@ -1771,8 +1771,8 @@
       <c r="B50" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="C50" s="5">
-        <v>2.15149821964781E-2</v>
+      <c r="C50" s="4">
+        <v>8.6588638395321792E-3</v>
       </c>
       <c r="D50" s="3">
         <v>6.6E-3</v>
@@ -1796,8 +1796,8 @@
       <c r="B51" s="3">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="C51" s="4">
-        <v>-6.4171450823624701E-2</v>
+      <c r="C51" s="5">
+        <v>2.15149821964781E-2</v>
       </c>
       <c r="D51" s="3">
         <v>6.0000000000000001E-3</v>
@@ -1822,7 +1822,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="C52" s="4">
-        <v>-1.03555607166017E-4</v>
+        <v>-6.4171450823624701E-2</v>
       </c>
       <c r="D52" s="3">
         <v>5.4000000000000003E-3</v>
@@ -1847,7 +1847,7 @@
         <v>1.06E-2</v>
       </c>
       <c r="C53" s="4">
-        <v>-1.37347207376471E-2</v>
+        <v>-1.03555607166017E-4</v>
       </c>
       <c r="D53" s="3">
         <v>5.7999999999999996E-3</v>
@@ -1872,7 +1872,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C54" s="4">
-        <v>-3.5507744493049803E-2</v>
+        <v>-1.37347207376471E-2</v>
       </c>
       <c r="D54" s="3">
         <v>5.1999999999999998E-3</v>
@@ -1897,7 +1897,7 @@
         <v>-4.1000000000000003E-3</v>
       </c>
       <c r="C55" s="4">
-        <v>-7.8773358350632094E-2</v>
+        <v>-3.5507744493049803E-2</v>
       </c>
       <c r="D55" s="3">
         <v>5.8999999999999999E-3</v>
@@ -1922,7 +1922,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="C56" s="4">
-        <v>7.3369433072198106E-2</v>
+        <v>-7.8773358350632094E-2</v>
       </c>
       <c r="D56" s="3">
         <v>5.4000000000000003E-3</v>
@@ -1946,8 +1946,8 @@
       <c r="B57" s="3">
         <v>-1.9E-3</v>
       </c>
-      <c r="C57" s="5">
-        <v>3.2357757062379602E-2</v>
+      <c r="C57" s="4">
+        <v>7.3369433072198106E-2</v>
       </c>
       <c r="D57" s="3">
         <v>6.4000000000000003E-3</v>
@@ -1972,7 +1972,7 @@
         <v>-8.0000000000000004E-4</v>
       </c>
       <c r="C58" s="5">
-        <v>3.5038432056496698E-2</v>
+        <v>3.2357757062379602E-2</v>
       </c>
       <c r="D58" s="3">
         <v>6.3E-3</v>
@@ -1996,8 +1996,8 @@
       <c r="B59" s="3">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="C59" s="4">
-        <v>3.5753522305436103E-2</v>
+      <c r="C59" s="5">
+        <v>3.5038432056496698E-2</v>
       </c>
       <c r="D59" s="3">
         <v>5.4999999999999997E-3</v>
@@ -2022,7 +2022,7 @@
         <v>1.5040000000000001E-2</v>
       </c>
       <c r="C60" s="4">
-        <v>-2.97346858742875E-2</v>
+        <v>3.5753522305436103E-2</v>
       </c>
       <c r="D60" s="3">
         <v>5.0000000000000001E-3</v>
@@ -2047,7 +2047,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="C61" s="4">
-        <v>-1.9725114626488099E-2</v>
+        <v>-2.97346858742875E-2</v>
       </c>
       <c r="D61" s="3">
         <v>5.0000000000000001E-3</v>
@@ -2071,8 +2071,8 @@
       <c r="B62" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="C62" s="5">
-        <v>3.23777957278608E-2</v>
+      <c r="C62" s="4">
+        <v>-1.9725114626488099E-2</v>
       </c>
       <c r="D62" s="3">
         <v>4.4999999999999997E-3</v>
